--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H2">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I2">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J2">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.098286333333333</v>
+        <v>2.455298666666666</v>
       </c>
       <c r="N2">
-        <v>12.294859</v>
+        <v>7.365895999999999</v>
       </c>
       <c r="O2">
-        <v>0.05728357954885573</v>
+        <v>0.03113820382581564</v>
       </c>
       <c r="P2">
-        <v>0.05728357954885573</v>
+        <v>0.03113820382581565</v>
       </c>
       <c r="Q2">
-        <v>1.035691600251111</v>
+        <v>1.733996574598222</v>
       </c>
       <c r="R2">
-        <v>9.321224402259999</v>
+        <v>15.605969171384</v>
       </c>
       <c r="S2">
-        <v>0.0006695677690477953</v>
+        <v>0.001062575896552755</v>
       </c>
       <c r="T2">
-        <v>0.0006695677690477953</v>
+        <v>0.001062575896552755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H3">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I3">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J3">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.730674</v>
       </c>
       <c r="O3">
-        <v>0.00340431900872394</v>
+        <v>0.003088813084277056</v>
       </c>
       <c r="P3">
-        <v>0.00340431900872394</v>
+        <v>0.003088813084277056</v>
       </c>
       <c r="Q3">
-        <v>0.06155035404</v>
+        <v>0.172007073294</v>
       </c>
       <c r="R3">
-        <v>0.55395318636</v>
+        <v>1.548063659646</v>
       </c>
       <c r="S3">
-        <v>3.979189676605716E-05</v>
+        <v>0.0001054042278953963</v>
       </c>
       <c r="T3">
-        <v>3.979189676605717E-05</v>
+        <v>0.0001054042278953963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H4">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I4">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J4">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.762212</v>
+        <v>41.38566833333334</v>
       </c>
       <c r="N4">
-        <v>86.286636</v>
+        <v>124.157005</v>
       </c>
       <c r="O4">
-        <v>0.4020222905613768</v>
+        <v>0.5248548347808349</v>
       </c>
       <c r="P4">
-        <v>0.4020222905613768</v>
+        <v>0.5248548347808349</v>
       </c>
       <c r="Q4">
-        <v>7.268594468559999</v>
+        <v>29.22764879959944</v>
       </c>
       <c r="R4">
-        <v>65.41735021704</v>
+        <v>263.048839196395</v>
       </c>
       <c r="S4">
-        <v>0.004699098246279944</v>
+        <v>0.01791041319361283</v>
       </c>
       <c r="T4">
-        <v>0.004699098246279944</v>
+        <v>0.01791041319361282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H5">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I5">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J5">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09228666666666667</v>
+        <v>0.2904403333333334</v>
       </c>
       <c r="N5">
-        <v>0.27686</v>
+        <v>0.871321</v>
       </c>
       <c r="O5">
-        <v>0.0012899319816434</v>
+        <v>0.003683376862192124</v>
       </c>
       <c r="P5">
-        <v>0.0012899319816434</v>
+        <v>0.003683376862192124</v>
       </c>
       <c r="Q5">
-        <v>0.02332207115555555</v>
+        <v>0.2051166116621111</v>
       </c>
       <c r="R5">
-        <v>0.2098986404</v>
+        <v>1.846049504959</v>
       </c>
       <c r="S5">
-        <v>1.507756473974794E-05</v>
+        <v>0.000125693424501275</v>
       </c>
       <c r="T5">
-        <v>1.507756473974794E-05</v>
+        <v>0.000125693424501275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H6">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I6">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J6">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>38.34748099999999</v>
+        <v>34.476682</v>
       </c>
       <c r="N6">
-        <v>115.042443</v>
+        <v>103.430046</v>
       </c>
       <c r="O6">
-        <v>0.5359998788994002</v>
+        <v>0.4372347714468802</v>
       </c>
       <c r="P6">
-        <v>0.5359998788994002</v>
+        <v>0.4372347714468802</v>
       </c>
       <c r="Q6">
-        <v>9.690919748446664</v>
+        <v>24.34834071435933</v>
       </c>
       <c r="R6">
-        <v>87.21827773601999</v>
+        <v>219.135066429234</v>
       </c>
       <c r="S6">
-        <v>0.006265115517414079</v>
+        <v>0.01492042161047926</v>
       </c>
       <c r="T6">
-        <v>0.006265115517414079</v>
+        <v>0.01492042161047926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>54.838014</v>
       </c>
       <c r="I7">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J7">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.098286333333333</v>
+        <v>2.455298666666666</v>
       </c>
       <c r="N7">
-        <v>12.294859</v>
+        <v>7.365895999999999</v>
       </c>
       <c r="O7">
-        <v>0.05728357954885573</v>
+        <v>0.03113820382581564</v>
       </c>
       <c r="P7">
-        <v>0.05728357954885573</v>
+        <v>0.03113820382581565</v>
       </c>
       <c r="Q7">
-        <v>74.91396110778066</v>
+        <v>44.88123421894932</v>
       </c>
       <c r="R7">
-        <v>674.225649970026</v>
+        <v>403.931107970544</v>
       </c>
       <c r="S7">
-        <v>0.04843138034266992</v>
+        <v>0.0275027750269024</v>
       </c>
       <c r="T7">
-        <v>0.04843138034266992</v>
+        <v>0.0275027750269024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>54.838014</v>
       </c>
       <c r="I8">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J8">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.730674</v>
       </c>
       <c r="O8">
-        <v>0.00340431900872394</v>
+        <v>0.003088813084277056</v>
       </c>
       <c r="P8">
-        <v>0.00340431900872394</v>
+        <v>0.003088813084277056</v>
       </c>
       <c r="Q8">
         <v>4.452079004604</v>
@@ -948,10 +948,10 @@
         <v>40.068711041436</v>
       </c>
       <c r="S8">
-        <v>0.002878239628490249</v>
+        <v>0.002728189841399728</v>
       </c>
       <c r="T8">
-        <v>0.00287823962849025</v>
+        <v>0.002728189841399727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>54.838014</v>
       </c>
       <c r="I9">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J9">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.762212</v>
+        <v>41.38566833333334</v>
       </c>
       <c r="N9">
-        <v>86.286636</v>
+        <v>124.157005</v>
       </c>
       <c r="O9">
-        <v>0.4020222905613768</v>
+        <v>0.5248548347808349</v>
       </c>
       <c r="P9">
-        <v>0.4020222905613768</v>
+        <v>0.5248548347808349</v>
       </c>
       <c r="Q9">
-        <v>525.7541947756561</v>
+        <v>756.5026198208967</v>
       </c>
       <c r="R9">
-        <v>4731.787752980904</v>
+        <v>6808.52357838807</v>
       </c>
       <c r="S9">
-        <v>0.339896609355627</v>
+        <v>0.4635772995612479</v>
       </c>
       <c r="T9">
-        <v>0.339896609355627</v>
+        <v>0.4635772995612478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>54.838014</v>
       </c>
       <c r="I10">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J10">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09228666666666667</v>
+        <v>0.2904403333333334</v>
       </c>
       <c r="N10">
-        <v>0.27686</v>
+        <v>0.871321</v>
       </c>
       <c r="O10">
-        <v>0.0012899319816434</v>
+        <v>0.003683376862192124</v>
       </c>
       <c r="P10">
-        <v>0.0012899319816434</v>
+        <v>0.003683376862192124</v>
       </c>
       <c r="Q10">
-        <v>1.686939172893333</v>
+        <v>5.309057021832666</v>
       </c>
       <c r="R10">
-        <v>15.18245255604</v>
+        <v>47.781513196494</v>
       </c>
       <c r="S10">
-        <v>0.001090595017126394</v>
+        <v>0.003253337467596017</v>
       </c>
       <c r="T10">
-        <v>0.001090595017126394</v>
+        <v>0.003253337467596017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>54.838014</v>
       </c>
       <c r="I11">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J11">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.34748099999999</v>
+        <v>34.476682</v>
       </c>
       <c r="N11">
-        <v>115.042443</v>
+        <v>103.430046</v>
       </c>
       <c r="O11">
-        <v>0.5359998788994002</v>
+        <v>0.4372347714468802</v>
       </c>
       <c r="P11">
-        <v>0.5359998788994002</v>
+        <v>0.4372347714468802</v>
       </c>
       <c r="Q11">
-        <v>700.9665666475779</v>
+        <v>630.210923396516</v>
       </c>
       <c r="R11">
-        <v>6308.699099828202</v>
+        <v>5671.898310568645</v>
       </c>
       <c r="S11">
-        <v>0.4531702488400171</v>
+        <v>0.3861870010328909</v>
       </c>
       <c r="T11">
-        <v>0.4531702488400171</v>
+        <v>0.3861870010328909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H12">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I12">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J12">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.098286333333333</v>
+        <v>2.455298666666666</v>
       </c>
       <c r="N12">
-        <v>12.294859</v>
+        <v>7.365895999999999</v>
       </c>
       <c r="O12">
-        <v>0.05728357954885573</v>
+        <v>0.03113820382581564</v>
       </c>
       <c r="P12">
-        <v>0.05728357954885573</v>
+        <v>0.03113820382581565</v>
       </c>
       <c r="Q12">
-        <v>12.65694532974089</v>
+        <v>0.07768974197777777</v>
       </c>
       <c r="R12">
-        <v>113.912507967668</v>
+        <v>0.6992076777999999</v>
       </c>
       <c r="S12">
-        <v>0.008182631437138016</v>
+        <v>4.76075030621771E-05</v>
       </c>
       <c r="T12">
-        <v>0.008182631437138016</v>
+        <v>4.760750306217709E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H13">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I13">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J13">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.730674</v>
       </c>
       <c r="O13">
-        <v>0.00340431900872394</v>
+        <v>0.003088813084277056</v>
       </c>
       <c r="P13">
-        <v>0.00340431900872394</v>
+        <v>0.003088813084277056</v>
       </c>
       <c r="Q13">
-        <v>0.7521925116720002</v>
+        <v>0.00770658105</v>
       </c>
       <c r="R13">
-        <v>6.769732605048001</v>
+        <v>0.06935922945</v>
       </c>
       <c r="S13">
-        <v>0.0004862874834676333</v>
+        <v>4.7225164043116E-06</v>
       </c>
       <c r="T13">
-        <v>0.0004862874834676334</v>
+        <v>4.722516404311599E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H14">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I14">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J14">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.762212</v>
+        <v>41.38566833333334</v>
       </c>
       <c r="N14">
-        <v>86.286636</v>
+        <v>124.157005</v>
       </c>
       <c r="O14">
-        <v>0.4020222905613768</v>
+        <v>0.5248548347808349</v>
       </c>
       <c r="P14">
-        <v>0.4020222905613768</v>
+        <v>0.5248548347808349</v>
       </c>
       <c r="Q14">
-        <v>88.82779660500802</v>
+        <v>1.309511522180556</v>
       </c>
       <c r="R14">
-        <v>799.4501694450721</v>
+        <v>11.785603699625</v>
       </c>
       <c r="S14">
-        <v>0.05742658295946988</v>
+        <v>0.00080245566808549</v>
       </c>
       <c r="T14">
-        <v>0.05742658295946989</v>
+        <v>0.0008024556680854898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H15">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I15">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J15">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.09228666666666667</v>
+        <v>0.2904403333333334</v>
       </c>
       <c r="N15">
-        <v>0.27686</v>
+        <v>0.871321</v>
       </c>
       <c r="O15">
-        <v>0.0012899319816434</v>
+        <v>0.003683376862192124</v>
       </c>
       <c r="P15">
-        <v>0.0012899319816434</v>
+        <v>0.003683376862192124</v>
       </c>
       <c r="Q15">
-        <v>0.2850135885244445</v>
+        <v>0.00919001621388889</v>
       </c>
       <c r="R15">
-        <v>2.56512229672</v>
+        <v>0.08271014592499999</v>
       </c>
       <c r="S15">
-        <v>0.000184259399777259</v>
+        <v>5.631550754400987E-06</v>
       </c>
       <c r="T15">
-        <v>0.000184259399777259</v>
+        <v>5.631550754400987E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H16">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I16">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J16">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.34748099999999</v>
+        <v>34.476682</v>
       </c>
       <c r="N16">
-        <v>115.042443</v>
+        <v>103.430046</v>
       </c>
       <c r="O16">
-        <v>0.5359998788994002</v>
+        <v>0.4372347714468802</v>
       </c>
       <c r="P16">
-        <v>0.5359998788994002</v>
+        <v>0.4372347714468802</v>
       </c>
       <c r="Q16">
-        <v>118.4304685113373</v>
+        <v>1.090899679616667</v>
       </c>
       <c r="R16">
-        <v>1065.874216602036</v>
+        <v>9.81809711655</v>
       </c>
       <c r="S16">
-        <v>0.07656451454196898</v>
+        <v>0.0006684924999845395</v>
       </c>
       <c r="T16">
-        <v>0.07656451454196898</v>
+        <v>0.0006684924999845393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.035108</v>
+      </c>
+      <c r="I17">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J17">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.455298666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.365895999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03113820382581564</v>
+      </c>
+      <c r="P17">
+        <v>0.03113820382581565</v>
+      </c>
+      <c r="Q17">
+        <v>4.120897986307555</v>
+      </c>
+      <c r="R17">
+        <v>37.088081876768</v>
+      </c>
+      <c r="S17">
+        <v>0.002525245399298314</v>
+      </c>
+      <c r="T17">
+        <v>0.002525245399298313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.035108</v>
+      </c>
+      <c r="I18">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J18">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.243558</v>
+      </c>
+      <c r="N18">
+        <v>0.730674</v>
+      </c>
+      <c r="O18">
+        <v>0.003088813084277056</v>
+      </c>
+      <c r="P18">
+        <v>0.003088813084277056</v>
+      </c>
+      <c r="Q18">
+        <v>0.408780278088</v>
+      </c>
+      <c r="R18">
+        <v>3.679022502792</v>
+      </c>
+      <c r="S18">
+        <v>0.00025049649857762</v>
+      </c>
+      <c r="T18">
+        <v>0.0002504964985776198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.035108</v>
+      </c>
+      <c r="I19">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J19">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>41.38566833333334</v>
+      </c>
+      <c r="N19">
+        <v>124.157005</v>
+      </c>
+      <c r="O19">
+        <v>0.5248548347808349</v>
+      </c>
+      <c r="P19">
+        <v>0.5248548347808349</v>
+      </c>
+      <c r="Q19">
+        <v>69.46043657017111</v>
+      </c>
+      <c r="R19">
+        <v>625.1439291315401</v>
+      </c>
+      <c r="S19">
+        <v>0.04256466635788882</v>
+      </c>
+      <c r="T19">
+        <v>0.0425646663578888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.035108</v>
+      </c>
+      <c r="I20">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J20">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2904403333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.871321</v>
+      </c>
+      <c r="O20">
+        <v>0.003683376862192124</v>
+      </c>
+      <c r="P20">
+        <v>0.003683376862192124</v>
+      </c>
+      <c r="Q20">
+        <v>0.4874661486297778</v>
+      </c>
+      <c r="R20">
+        <v>4.387195337668</v>
+      </c>
+      <c r="S20">
+        <v>0.0002987144193404314</v>
+      </c>
+      <c r="T20">
+        <v>0.0002987144193404314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.035108</v>
+      </c>
+      <c r="I21">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J21">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.476682</v>
+      </c>
+      <c r="N21">
+        <v>103.430046</v>
+      </c>
+      <c r="O21">
+        <v>0.4372347714468802</v>
+      </c>
+      <c r="P21">
+        <v>0.4372347714468802</v>
+      </c>
+      <c r="Q21">
+        <v>57.86460578388534</v>
+      </c>
+      <c r="R21">
+        <v>520.781452054968</v>
+      </c>
+      <c r="S21">
+        <v>0.03545885630352547</v>
+      </c>
+      <c r="T21">
+        <v>0.03545885630352545</v>
       </c>
     </row>
   </sheetData>
